--- a/TestData/Litigation_Notice_Upload_Format2.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format2.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H17"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -124,9 +120,6 @@
     <t xml:space="preserve">Financial Year </t>
   </si>
   <si>
-    <t>Inward</t>
-  </si>
-  <si>
     <t>Section 15A</t>
   </si>
   <si>
@@ -221,9 +214,6 @@
   </si>
   <si>
     <t>Response /Receipt  date    (dd-MMM-yyyy)</t>
-  </si>
-  <si>
-    <t>12-Jan-2021</t>
   </si>
   <si>
     <t>Contact Person of Department/Authorized Representative</t>
@@ -258,7 +248,10 @@
     <t>06-Jul-2024</t>
   </si>
   <si>
-    <t>Cryptocurrency</t>
+    <t>debit cards For SBI</t>
+  </si>
+  <si>
+    <t>Inward</t>
   </si>
 </sst>
 </file>
@@ -914,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -950,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>12</v>
@@ -1001,10 +994,10 @@
         <v>27</v>
       </c>
       <c r="AE1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="AG1" s="17" t="s">
         <v>28</v>
@@ -1019,55 +1012,55 @@
         <v>31</v>
       </c>
       <c r="AK1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18152024</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="4">
-        <v>29072024</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1078,7 +1071,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
@@ -1090,21 +1083,21 @@
         <v>2018</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="6"/>
       <c r="AG2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AK2" s="10"/>
       <c r="AL2" s="30">
@@ -1144,54 +1137,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>29072024</v>
+        <v>18152024</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="10">
+        <v>15</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="10">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1207,7 +1200,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,46 +1219,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="G1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>29072024</v>
+        <v>18152024</v>
       </c>
       <c r="B2" s="14">
         <v>58</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>

--- a/TestData/Litigation_Notice_Upload_Format2.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format2.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,6 @@
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H17"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -860,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1030,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="4">
-        <v>18152024</v>
+        <v>29152024</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>66</v>
@@ -1166,7 +1170,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>18152024</v>
+        <v>29152024</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>47</v>
@@ -1181,7 +1185,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>50</v>
@@ -1199,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1252,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>18152024</v>
+        <v>29152024</v>
       </c>
       <c r="B2" s="14">
         <v>58</v>

--- a/TestData/Litigation_Notice_Upload_Format2.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>12-Mar-2024</t>
-  </si>
-  <si>
-    <t>Notice as on date 6july24</t>
   </si>
   <si>
     <t>abc act</t>
@@ -236,26 +233,35 @@
 Mahesh Jadhav</t>
   </si>
   <si>
-    <t>A Pvt Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-approver@regtrack.com</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
+    <t>06-Jul-2024</t>
+  </si>
+  <si>
+    <t>debit cards For SBI</t>
+  </si>
+  <si>
+    <t>Inward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pvt ltd
+</t>
+  </si>
+  <si>
+    <t>Notice as on date 6july25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> companyadmin@regtrack.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  companyadmin@regtrack.com</t>
+  </si>
+  <si>
     <t>2024-2025</t>
   </si>
   <si>
-    <t>06-Jul-2024</t>
-  </si>
-  <si>
-    <t>debit cards For SBI</t>
-  </si>
-  <si>
-    <t>Inward</t>
+    <t>12-Jan-2024</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -401,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,21 +449,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -468,9 +459,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -478,7 +466,30 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,14 +875,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20" style="20" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
@@ -902,144 +913,144 @@
     <col min="35" max="35" width="25.42578125" customWidth="1"/>
     <col min="36" max="36" width="12.28515625" customWidth="1"/>
     <col min="37" max="37" width="16.140625" customWidth="1"/>
-    <col min="38" max="38" width="12.140625" customWidth="1"/>
+    <col min="38" max="38" width="23.5703125" customWidth="1"/>
     <col min="39" max="1024" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:38" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AH1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AK1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="4">
-        <v>29152024</v>
+        <v>34358225</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>32</v>
@@ -1048,32 +1059,20 @@
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="5" t="s">
-        <v>70</v>
+      <c r="P2" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
       <c r="Z2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1087,31 +1086,32 @@
         <v>2018</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="AF2" s="15"/>
       <c r="AG2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="6"/>
       <c r="AI2" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="30">
-        <v>45485</v>
+        <v>76</v>
+      </c>
+      <c r="AK2" s="33">
+        <v>45382</v>
+      </c>
+      <c r="AL2" s="33">
+        <v>45382</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="abc@gmail.com,xyz@gmail.com"/>
-    <hyperlink ref="P2" r:id="rId2" display="ram@gmail.com"/>
+    <hyperlink ref="P2" r:id="rId1" display="bhagyesh@tlregtech.com"/>
+    <hyperlink ref="I2" r:id="rId2" display="abc@gmail.com,xyz@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1130,7 +1130,7 @@
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="20" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
@@ -1146,7 +1146,7 @@
       <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1170,12 +1170,12 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>29152024</v>
+        <v>34358225</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -1185,7 +1185,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="10">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>50</v>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1212,7 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="20" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
@@ -1231,7 +1231,7 @@
       <c r="C1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1252,17 +1252,17 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>29152024</v>
+        <v>34358225</v>
       </c>
       <c r="B2" s="14">
         <v>58</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="D2" s="24" t="s">
-        <v>73</v>
+      <c r="D2" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>
